--- a/biology/Zoologie/Bulinus/Bulinus.xlsx
+++ b/biology/Zoologie/Bulinus/Bulinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bulinus est un genre composé de 37 espèces de petits escargots dulçaquicoles appartenant à la famille des Planorbidés. 
 Ce genre a une importance considérable en médecine tropicale, en tant qu'hôte intermédiaire de parasitose comme la bilharziose. 
-Leur distribution couvre le continent africain (y compris Madagascar[1]) et le Moyen-Orient[2]. 
-En Europe, on en trouve en Corse[3].
+Leur distribution couvre le continent africain (y compris Madagascar) et le Moyen-Orient. 
+En Europe, on en trouve en Corse.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Liste des espèces[4]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bulinus africanus
 Bulinus barthi
@@ -522,7 +536,7 @@
 Bulinus browni
 Bulinus camerunensis
 Bulinus canensis
-Bulinus canescens (Morelet, 1868)[5]
+Bulinus canescens (Morelet, 1868)
 Bulinus cernicus
 Bulinus crystallinus
 Bulinus forskalii
